--- a/csvs_redacao/dados.xlsx
+++ b/csvs_redacao/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmonteiro\Documents\mba\tcc\projeto em R\new_telco_churn\csvs_redacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E0A740-9804-4A7C-8B52-DC353B8088D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35FFA88-F411-432C-A48F-7093D505C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coefs_modelo_rl_both" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="todos_ccis" sheetId="3" r:id="rId3"/>
     <sheet name="corr_vars_numericas" sheetId="4" r:id="rId4"/>
     <sheet name="regras_arvore_decisao" sheetId="5" r:id="rId5"/>
-    <sheet name="auc_diversos_modelos" sheetId="6" r:id="rId6"/>
+    <sheet name="ceps_qtd_nulos" sheetId="7" r:id="rId6"/>
+    <sheet name="auc_diversos_modelos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="150">
   <si>
     <t>Variável preditora</t>
   </si>
@@ -474,6 +475,27 @@
   </si>
   <si>
     <t>% Observações que satisfazem as características</t>
+  </si>
+  <si>
+    <t>zip_code_renda_familiar_mediana</t>
+  </si>
+  <si>
+    <t>zip_code_indice_gini_desigualdade_renda</t>
+  </si>
+  <si>
+    <t>zip_code_idade_mediana_habitantes</t>
+  </si>
+  <si>
+    <t>zip_code_tx_habitantes_homens</t>
+  </si>
+  <si>
+    <t>zip_code_tx_habitantes_menor_18_anos</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Quantidade de observações com dados faltantes</t>
   </si>
 </sst>
 </file>
@@ -7105,7 +7127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7117,7 +7139,7 @@
     <col min="4" max="16384" width="10.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
@@ -7128,7 +7150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>89</v>
       </c>
@@ -7139,7 +7161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>91</v>
       </c>
@@ -7150,7 +7172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>93</v>
       </c>
@@ -7161,7 +7183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>94</v>
       </c>
@@ -7172,7 +7194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
@@ -7183,7 +7205,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>98</v>
       </c>
@@ -7194,7 +7216,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>100</v>
       </c>
@@ -7205,7 +7227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>102</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>103</v>
       </c>
@@ -7227,7 +7249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
@@ -7238,7 +7260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
@@ -7249,7 +7271,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>106</v>
       </c>
@@ -7260,7 +7282,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>107</v>
       </c>
@@ -7271,7 +7293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>108</v>
       </c>
@@ -7282,7 +7304,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>109</v>
       </c>
@@ -7293,7 +7315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>110</v>
       </c>
@@ -7304,7 +7326,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>111</v>
       </c>
@@ -7315,7 +7337,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>112</v>
       </c>
@@ -7326,7 +7348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>113</v>
       </c>
@@ -7337,7 +7359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>114</v>
       </c>
@@ -7348,7 +7370,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>115</v>
       </c>
@@ -7359,7 +7381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>116</v>
       </c>
@@ -7370,7 +7392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>134</v>
       </c>
@@ -7381,7 +7403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>137</v>
       </c>
@@ -7392,7 +7414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>136</v>
       </c>
@@ -7403,7 +7425,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>138</v>
       </c>
@@ -7414,7 +7436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>139</v>
       </c>
@@ -7425,7 +7447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" ht="154" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>140</v>
       </c>
@@ -7436,7 +7458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>141</v>
       </c>
@@ -7457,6 +7479,74 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47044A1-6784-49E7-AAB0-D07DA56FE839}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="12">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
